--- a/Excel Files/Cereal.xlsx
+++ b/Excel Files/Cereal.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 305\STOR305_WEBSITE\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8B58326-C07B-4D30-9452-6EC648CDFBD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBABDBF-0C9B-4902-A9F2-EB3F00369396}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cereal" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
@@ -27,14 +25,6 @@
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -173,7 +163,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -542,11 +532,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J31"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1549,28 +1539,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>